--- a/Entregaveis/Entrega_1_RepositorioSemantico/Imunizacao/ConceptMap/brimunobiologicoxGPSvaccines_GPSvaccinesxbrimunobiologico.xlsx
+++ b/Entregaveis/Entrega_1_RepositorioSemantico/Imunizacao/ConceptMap/brimunobiologicoxGPSvaccines_GPSvaccinesxbrimunobiologico.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moaassis\Documents\GitHub\HSL-IPS\Entregaveis\Entrega_1_RepositorioSemantico\Imunizacao\ConceptMap\brimunobiologicoxGPSvaccines_GPSvaccinesxbrimunobiologico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moaassis\Documents\GitHub\HSL-IPS\Entregaveis\Entrega_1_RepositorioSemantico\Imunizacao\ConceptMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="brimunobiologicoxGPSvaccines" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -574,7 +574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>

--- a/Entregaveis/Entrega_1_RepositorioSemantico/Imunizacao/ConceptMap/brimunobiologicoxGPSvaccines_GPSvaccinesxbrimunobiologico.xlsx
+++ b/Entregaveis/Entrega_1_RepositorioSemantico/Imunizacao/ConceptMap/brimunobiologicoxGPSvaccines_GPSvaccinesxbrimunobiologico.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moaassis\Documents\GitHub\HSL-IPS\Entregaveis\Entrega_1_RepositorioSemantico\Imunizacao\ConceptMap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monalisa\Documents\GitHub\HSL-IPS\Entregaveis\Entrega_1_RepositorioSemantico\Imunizacao\ConceptMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656"/>
   </bookViews>
   <sheets>
     <sheet name="brimunobiologicoxGPSvaccines" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Monalisa</author>
+  </authors>
+  <commentList>
+    <comment ref="G3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Monalisa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+irá manter ou não?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>GRAU DE EQUIVALÊNCIA DO MAPEAMENTO</t>
   </si>
@@ -82,13 +116,34 @@
   </si>
   <si>
     <t>ID (ALVO)</t>
+  </si>
+  <si>
+    <t>DISPLAY NAME (FONTE)</t>
+  </si>
+  <si>
+    <t>CLASS (FONTE)</t>
+  </si>
+  <si>
+    <t>DATATYPE (FONTE)</t>
+  </si>
+  <si>
+    <t>DISPLAY NAME (ALVO)</t>
+  </si>
+  <si>
+    <t>NOME (PT-PT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLASS (ALVO) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATATYPE (ALVO) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +171,35 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -161,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -173,6 +257,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -468,25 +561,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" customWidth="1"/>
+    <col min="10" max="10" width="30.5546875" customWidth="1"/>
+    <col min="11" max="11" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -497,8 +594,11 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -509,46 +609,62 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="K3" s="7" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:H3"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H1048576">
       <formula1>"1..1,1..*,*..1,*..*"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
+      <formula1>"1..1,1..*,*..1,*..*,-,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -560,9 +676,9 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'C:\Users\moaassis\Documents\HSL-IPS\Entregaveis\Mapeamentos\Templates\ConceptMap\BRImunobiológico\[Mapping BRImunobiológico.xlsx]Opções'!#REF!</xm:f>
+            <xm:f>Opções!$A$1:$E$1</xm:f>
           </x14:formula1>
-          <xm:sqref>G3</xm:sqref>
+          <xm:sqref>J1:J1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -574,22 +690,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="2" max="3" width="31.109375" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -601,7 +717,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -613,7 +729,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -680,12 +796,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>

--- a/Entregaveis/Entrega_1_RepositorioSemantico/Imunizacao/ConceptMap/brimunobiologicoxGPSvaccines_GPSvaccinesxbrimunobiologico.xlsx
+++ b/Entregaveis/Entrega_1_RepositorioSemantico/Imunizacao/ConceptMap/brimunobiologicoxGPSvaccines_GPSvaccinesxbrimunobiologico.xlsx
@@ -39,7 +39,41 @@
     <author>Monalisa</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Monalisa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+irá manter ou não?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Monalisa</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>GRAU DE EQUIVALÊNCIA DO MAPEAMENTO</t>
   </si>
@@ -94,27 +128,15 @@
     <t>TERMO REPETIDO.</t>
   </si>
   <si>
-    <t xml:space="preserve">STATUS </t>
-  </si>
-  <si>
     <t xml:space="preserve">Collection x Collection </t>
   </si>
   <si>
     <t>Organização x Organização</t>
   </si>
   <si>
-    <t>NOME (ALVO) (EN-GB)</t>
-  </si>
-  <si>
-    <t>NOME (ALVO) (PT-PT)</t>
-  </si>
-  <si>
     <t>ID (FONTE)</t>
   </si>
   <si>
-    <t>NOME (FONTE)</t>
-  </si>
-  <si>
     <t>ID (ALVO)</t>
   </si>
   <si>
@@ -137,13 +159,16 @@
   </si>
   <si>
     <t xml:space="preserve">DATATYPE (ALVO) </t>
+  </si>
+  <si>
+    <t>SOURCE (FONTE)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,13 +190,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -217,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -240,14 +258,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -259,13 +309,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -562,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,89 +629,101 @@
     <col min="4" max="4" width="21.44140625" customWidth="1"/>
     <col min="5" max="5" width="23.5546875" customWidth="1"/>
     <col min="6" max="6" width="21.109375" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" customWidth="1"/>
+    <col min="8" max="8" width="23.21875" customWidth="1"/>
     <col min="9" max="9" width="16.77734375" customWidth="1"/>
-    <col min="10" max="10" width="30.5546875" customWidth="1"/>
-    <col min="11" max="11" width="35.109375" customWidth="1"/>
+    <col min="10" max="10" width="22.21875" customWidth="1"/>
+    <col min="11" max="11" width="17.77734375" customWidth="1"/>
+    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="13" max="13" width="27.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
     </row>
-    <row r="2" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:13" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="K3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="L3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="M3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:H3"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H1048576">
       <formula1>"1..1,1..*,*..1,*..*"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K1048576 M1:M1048576">
       <formula1>"1..1,1..*,*..1,*..*,-,"</formula1>
     </dataValidation>
   </dataValidations>
@@ -678,7 +743,7 @@
           <x14:formula1>
             <xm:f>Opções!$A$1:$E$1</xm:f>
           </x14:formula1>
-          <xm:sqref>J1:J1048576</xm:sqref>
+          <xm:sqref>J4:J1048576 L1:L1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -687,11 +752,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="C1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,84 +768,112 @@
     <col min="6" max="6" width="21.109375" customWidth="1"/>
     <col min="7" max="7" width="33.33203125" customWidth="1"/>
     <col min="8" max="8" width="30.33203125" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.77734375" customWidth="1"/>
+    <col min="12" max="12" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
     </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:H3"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H1048576">
       <formula1>"1..1,1..*,*..1,*..*"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
+      <formula1>"1..1,1..*,*..1,*..*,-,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'C:\Users\moaassis\Documents\HSL-IPS\Entregaveis\Mapeamentos\Templates\ConceptMap\BRImunobiológico\[Mapping BRImunobiológico.xlsx]Opções'!#REF!</xm:f>
+            <xm:f>Opções!$A$1:$G$1</xm:f>
           </x14:formula1>
-          <xm:sqref>G3</xm:sqref>
+          <xm:sqref>G4:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Opções!$A$1:$G$1</xm:f>
+            <xm:f>Opções!$A$1:$E$1</xm:f>
           </x14:formula1>
-          <xm:sqref>G4:G1048576</xm:sqref>
+          <xm:sqref>K1:K1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Entregaveis/Entrega_1_RepositorioSemantico/Imunizacao/ConceptMap/brimunobiologicoxGPSvaccines_GPSvaccinesxbrimunobiologico.xlsx
+++ b/Entregaveis/Entrega_1_RepositorioSemantico/Imunizacao/ConceptMap/brimunobiologicoxGPSvaccines_GPSvaccinesxbrimunobiologico.xlsx
@@ -9,20 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="brimunobiologicoxGPSvaccines" sheetId="1" r:id="rId1"/>
     <sheet name="GPSvaccinesxbrimunobiologico" sheetId="3" r:id="rId2"/>
     <sheet name="Opções" sheetId="2" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">brimunobiologicoxGPSvaccines!$A$3:$H$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">GPSvaccinesxbrimunobiologico!$A$3:$H$3</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="0">brimunobiologicoxGPSvaccines!$G$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">brimunobiologicoxGPSvaccines!$A$3:$I$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">GPSvaccinesxbrimunobiologico!$A$3:$I$3</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">brimunobiologicoxGPSvaccines!$H$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,6 +31,40 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Monalisa</author>
+  </authors>
+  <commentList>
+    <comment ref="J3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Monalisa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+irá manter ou não?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Monalisa</author>
@@ -67,42 +98,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Monalisa</author>
-  </authors>
-  <commentList>
-    <comment ref="H3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Monalisa:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-irá manter ou não?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>GRAU DE EQUIVALÊNCIA DO MAPEAMENTO</t>
   </si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>SOURCE (FONTE)</t>
+  </si>
+  <si>
+    <t>SOURCE (ALVO)</t>
   </si>
 </sst>
 </file>
@@ -309,17 +309,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -337,19 +337,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Opções"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -615,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,17 +615,17 @@
     <col min="3" max="3" width="22.21875" customWidth="1"/>
     <col min="4" max="4" width="21.44140625" customWidth="1"/>
     <col min="5" max="5" width="23.5546875" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" customWidth="1"/>
-    <col min="7" max="7" width="27.44140625" customWidth="1"/>
-    <col min="8" max="8" width="23.21875" customWidth="1"/>
-    <col min="9" max="9" width="16.77734375" customWidth="1"/>
-    <col min="10" max="10" width="22.21875" customWidth="1"/>
-    <col min="11" max="11" width="17.77734375" customWidth="1"/>
-    <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="27.21875" customWidth="1"/>
+    <col min="6" max="7" width="21.109375" customWidth="1"/>
+    <col min="8" max="8" width="27.44140625" customWidth="1"/>
+    <col min="9" max="9" width="23.21875" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" customWidth="1"/>
+    <col min="11" max="11" width="22.21875" customWidth="1"/>
+    <col min="12" max="12" width="17.77734375" customWidth="1"/>
+    <col min="13" max="13" width="24" customWidth="1"/>
+    <col min="14" max="14" width="27.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -654,8 +641,9 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -671,8 +659,9 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:13" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -692,38 +681,41 @@
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:H3"/>
+  <autoFilter ref="A3:I3"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I1048576">
       <formula1>"1..1,1..*,*..1,*..*"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K1048576 M1:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L1048576 N1:N1048576">
       <formula1>"1..1,1..*,*..1,*..*,-,"</formula1>
     </dataValidation>
   </dataValidations>
@@ -737,13 +729,13 @@
           <x14:formula1>
             <xm:f>Opções!$A$1:$G$1</xm:f>
           </x14:formula1>
-          <xm:sqref>G4:G1048576</xm:sqref>
+          <xm:sqref>H4:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Opções!$A$1:$E$1</xm:f>
           </x14:formula1>
-          <xm:sqref>J4:J1048576 L1:L1048576</xm:sqref>
+          <xm:sqref>K4:K1048576 M1:M1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -753,10 +745,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,49 +756,51 @@
     <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="3" width="31.109375" customWidth="1"/>
     <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" customWidth="1"/>
-    <col min="11" max="11" width="31.77734375" customWidth="1"/>
-    <col min="12" max="12" width="34.44140625" customWidth="1"/>
+    <col min="5" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" customWidth="1"/>
+    <col min="12" max="12" width="31.77734375" customWidth="1"/>
+    <col min="13" max="13" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -823,38 +817,41 @@
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:H3"/>
+  <autoFilter ref="A3:I3"/>
   <mergeCells count="2">
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I1048576">
       <formula1>"1..1,1..*,*..1,*..*"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
       <formula1>"1..1,1..*,*..1,*..*,-,"</formula1>
     </dataValidation>
   </dataValidations>
@@ -867,13 +864,13 @@
           <x14:formula1>
             <xm:f>Opções!$A$1:$G$1</xm:f>
           </x14:formula1>
-          <xm:sqref>G4:G1048576</xm:sqref>
+          <xm:sqref>H4:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Opções!$A$1:$E$1</xm:f>
           </x14:formula1>
-          <xm:sqref>K1:K1048576</xm:sqref>
+          <xm:sqref>L1:L1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
